--- a/NorthwindTablesAndColumns.xlsx
+++ b/NorthwindTablesAndColumns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armando\YUU-LearnToCode\DataAnalytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armando\YUU-LearnToCode\DataAnalytics\Week_9\W9_Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC58E958-0B24-42BD-A9B9-8439DBAF5E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABAE61C2-6F44-4FF6-9AFE-B713DAAA3B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33090" yWindow="1485" windowWidth="24510" windowHeight="12210" xr2:uid="{901F5D27-877F-4C94-89AE-9A9B6ECE5CB6}"/>
+    <workbookView xWindow="855" yWindow="1440" windowWidth="24510" windowHeight="12210" xr2:uid="{901F5D27-877F-4C94-89AE-9A9B6ECE5CB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Northwind Columns" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="114">
   <si>
     <t>table_name</t>
   </si>
@@ -338,6 +338,45 @@
   </si>
   <si>
     <t xml:space="preserve">Customer Country </t>
+  </si>
+  <si>
+    <t>Employee Last Name</t>
+  </si>
+  <si>
+    <t>Employee First Name</t>
+  </si>
+  <si>
+    <t>Employee Title</t>
+  </si>
+  <si>
+    <t>Empoyee Title of Courtesy</t>
+  </si>
+  <si>
+    <t>Empoyee Date of Birth</t>
+  </si>
+  <si>
+    <t>Employee Date of hire</t>
+  </si>
+  <si>
+    <t>Employee Region</t>
+  </si>
+  <si>
+    <t>Employee Postal Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Country </t>
+  </si>
+  <si>
+    <t>Employee Reports To</t>
+  </si>
+  <si>
+    <t>Order Unit Price</t>
+  </si>
+  <si>
+    <t>Order Quantity</t>
+  </si>
+  <si>
+    <t>Discount %</t>
   </si>
 </sst>
 </file>
@@ -726,8 +765,8 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,6 +886,9 @@
       <c r="I3" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -957,6 +999,9 @@
       <c r="I7" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="K7" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -986,6 +1031,9 @@
       <c r="I8" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="K8" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1015,6 +1063,9 @@
       <c r="I9" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="K9" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1131,6 +1182,9 @@
       <c r="I13" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="K13" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1160,6 +1214,9 @@
       <c r="I14" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="K14" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1186,6 +1243,9 @@
       <c r="H15" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="K15" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1213,7 +1273,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1238,9 +1298,11 @@
       <c r="H17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1265,9 +1327,11 @@
       <c r="H18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1292,9 +1356,14 @@
       <c r="H19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1319,8 +1388,14 @@
       <c r="H20" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1345,8 +1420,14 @@
       <c r="H21" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -1371,8 +1452,14 @@
       <c r="H22" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1397,8 +1484,14 @@
       <c r="H23" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1423,8 +1516,11 @@
       <c r="H24" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1450,7 +1546,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1475,8 +1571,11 @@
       <c r="H26" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1501,8 +1600,14 @@
       <c r="H27" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1527,8 +1632,14 @@
       <c r="H28" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1553,8 +1664,11 @@
       <c r="H29" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K29" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -1580,7 +1694,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -1606,7 +1720,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1632,7 +1746,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
@@ -1657,8 +1771,14 @@
       <c r="H33" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
@@ -1684,7 +1804,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
@@ -1709,8 +1829,9 @@
       <c r="H35" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
@@ -1736,7 +1857,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -1762,7 +1883,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -1788,7 +1909,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -1813,8 +1934,14 @@
       <c r="H39" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -1839,8 +1966,14 @@
       <c r="H40" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
@@ -1865,8 +1998,14 @@
       <c r="H41" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -1891,8 +2030,12 @@
       <c r="H42" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>53</v>
       </c>
@@ -1917,8 +2060,11 @@
       <c r="H43" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J43" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
@@ -1943,8 +2089,11 @@
       <c r="H44" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J44" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
@@ -1969,8 +2118,14 @@
       <c r="H45" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>53</v>
       </c>
@@ -1995,8 +2150,14 @@
       <c r="H46" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
@@ -2021,8 +2182,14 @@
       <c r="H47" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
@@ -2047,8 +2214,12 @@
       <c r="H48" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -2073,8 +2244,14 @@
       <c r="H49" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
@@ -2099,8 +2276,14 @@
       <c r="H50" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
@@ -2125,8 +2308,14 @@
       <c r="H51" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
@@ -2151,8 +2340,12 @@
       <c r="H52" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -2177,8 +2370,14 @@
       <c r="H53" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -2203,8 +2402,14 @@
       <c r="H54" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -2229,8 +2434,14 @@
       <c r="H55" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
@@ -2255,8 +2466,11 @@
       <c r="H56" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J56" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -2281,8 +2495,14 @@
       <c r="H57" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
@@ -2307,8 +2527,11 @@
       <c r="H58" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J58" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>65</v>
       </c>
@@ -2333,8 +2556,11 @@
       <c r="H59" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J59" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
@@ -2359,8 +2585,11 @@
       <c r="H60" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J60" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
@@ -2385,8 +2614,11 @@
       <c r="H61" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J61" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>65</v>
       </c>
@@ -2411,8 +2643,11 @@
       <c r="H62" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J62" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2672,11 @@
       <c r="H63" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J63" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -2463,8 +2701,11 @@
       <c r="H64" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J64" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
@@ -2489,8 +2730,14 @@
       <c r="H65" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>22</v>
       </c>
@@ -2515,8 +2762,11 @@
       <c r="H66" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J66" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>22</v>
       </c>
@@ -2541,8 +2791,11 @@
       <c r="H67" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J67" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
@@ -2567,8 +2820,11 @@
       <c r="H68" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J68" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>76</v>
       </c>
@@ -2593,8 +2849,14 @@
       <c r="H69" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J69" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>76</v>
       </c>
@@ -2619,8 +2881,11 @@
       <c r="H70" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J70" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>78</v>
       </c>
@@ -2645,8 +2910,11 @@
       <c r="H71" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J71" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>78</v>
       </c>
@@ -2671,8 +2939,14 @@
       <c r="H72" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J72" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>78</v>
       </c>
@@ -2697,8 +2971,14 @@
       <c r="H73" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J73" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>78</v>
       </c>
@@ -2723,8 +3003,14 @@
       <c r="H74" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J74" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>78</v>
       </c>
@@ -2749,8 +3035,11 @@
       <c r="H75" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J75" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>78</v>
       </c>
@@ -2775,8 +3064,11 @@
       <c r="H76" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J76" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>78</v>
       </c>
@@ -2801,8 +3093,14 @@
       <c r="H77" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
@@ -2827,8 +3125,14 @@
       <c r="H78" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J78" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -2853,8 +3157,14 @@
       <c r="H79" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
@@ -2879,8 +3189,11 @@
       <c r="H80" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J80" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>78</v>
       </c>
@@ -2905,8 +3218,11 @@
       <c r="H81" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J81" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>78</v>
       </c>
@@ -2931,8 +3247,11 @@
       <c r="H82" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J82" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
@@ -2957,8 +3276,11 @@
       <c r="H83" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J83" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>80</v>
       </c>
@@ -2983,8 +3305,11 @@
       <c r="H84" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J84" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>80</v>
       </c>
@@ -3008,6 +3333,9 @@
       </c>
       <c r="H85" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3025,25 +3353,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="ced60a7f-99b1-48d2-b555-34851c8026ae" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9e0b35a9-e6cb-436b-81d4-4440ba439ca5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="ced60a7f-99b1-48d2-b555-34851c8026ae">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="9e0b35a9-e6cb-436b-81d4-4440ba439ca5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CA5D0A6329BB324E86983B32928CFC2E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b28f3bc5995c0091f528145aa367664">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9e0b35a9-e6cb-436b-81d4-4440ba439ca5" xmlns:ns3="ced60a7f-99b1-48d2-b555-34851c8026ae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48800952b0413791e1a5c8543532e00d" ns2:_="" ns3:_="">
     <xsd:import namespace="9e0b35a9-e6cb-436b-81d4-4440ba439ca5"/>
@@ -3284,6 +3593,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ced60a7f-99b1-48d2-b555-34851c8026ae" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9e0b35a9-e6cb-436b-81d4-4440ba439ca5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="ced60a7f-99b1-48d2-b555-34851c8026ae">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="9e0b35a9-e6cb-436b-81d4-4440ba439ca5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0257D61C-6042-483B-9C34-3DE0D82CB154}">
   <ds:schemaRefs>
@@ -3293,17 +3621,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BB560F9-4CC1-4243-8F16-7FDC2CD703FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ced60a7f-99b1-48d2-b555-34851c8026ae"/>
-    <ds:schemaRef ds:uri="9e0b35a9-e6cb-436b-81d4-4440ba439ca5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C0F2F57-CFBB-4DE2-9688-0C0C6A435162}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3320,4 +3637,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BB560F9-4CC1-4243-8F16-7FDC2CD703FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ced60a7f-99b1-48d2-b555-34851c8026ae"/>
+    <ds:schemaRef ds:uri="9e0b35a9-e6cb-436b-81d4-4440ba439ca5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>